--- a/Extracted Excel/extracted_table_data.xlsx
+++ b/Extracted Excel/extracted_table_data.xlsx
@@ -303,898 +303,898 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
